--- a/Excel/神器计算.xlsx
+++ b/Excel/神器计算.xlsx
@@ -7987,7 +7987,7 @@
   <dimension ref="A1:AZ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8323,7 +8323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:52" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
